--- a/Data.xlsx
+++ b/Data.xlsx
@@ -1,37 +1,407 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
+  <bookViews>
+    <workbookView windowWidth="18600" windowHeight="6920"/>
+  </bookViews>
   <sheets>
     <sheet name="SearchPinCode" sheetId="1" r:id="rId1"/>
-    <sheet name="HOSPITAL_DETAILS" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+  <si>
+    <t>PINCODE</t>
+  </si>
+  <si>
+    <t>MIN_AGE_LIMIT</t>
+  </si>
+  <si>
+    <t>VACCINE_TYPE</t>
+  </si>
+  <si>
+    <t>TYPE_OF_DOSE</t>
+  </si>
+  <si>
+    <t>COVISHIELD,COVAXIN</t>
+  </si>
+  <si>
+    <t>Dose2</t>
+  </si>
+  <si>
+    <t>Dose1</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -39,18 +409,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="8" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9"/>
+    <cellStyle name="Check Cell" xfId="10" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="11" builtinId="17"/>
+    <cellStyle name="Note" xfId="12" builtinId="10"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -370,223 +1034,73 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E$1:E$1048576"/>
+    </sheetView>
   </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
+    <col min="3" max="3" width="25.25" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>PINCODE</v>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" t="str">
-        <v>MIN_AGE_LIMIT</v>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
-      <c r="C1" t="str">
-        <v>VACCINE_TYPE</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
-      <c r="D1" t="str">
-        <v>TYPE_OF_DOSE</v>
-      </c>
-      <c r="E1" t="str">
-        <v>STATUS</v>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>600100</v>
       </c>
       <c r="B2">
         <v>45</v>
       </c>
-      <c r="C2" t="str">
-        <v>COVISHIELD,COVAXIN</v>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
-      <c r="D2" t="str">
-        <v>Dose2</v>
-      </c>
-      <c r="E2" t="str">
-        <v>AVAILABLE</v>
+      <c r="D2" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>600096</v>
       </c>
       <c r="B3">
         <v>18</v>
       </c>
-      <c r="C3" t="str">
-        <v>COVISHIELD,COVAXIN</v>
+      <c r="C3" t="s">
+        <v>4</v>
       </c>
-      <c r="D3" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E3" t="str">
-        <v>NOT AVAILABLE</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>600016</v>
-      </c>
-      <c r="B4">
-        <v>45</v>
-      </c>
-      <c r="C4" t="str">
-        <v>COVISHIELD</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E4" t="str">
-        <v>NOT AVAILABLE</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5">
-        <v>600075</v>
-      </c>
-      <c r="B5">
-        <v>18</v>
-      </c>
-      <c r="C5" t="str">
-        <v>COVISHIELD</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Dose1</v>
-      </c>
-      <c r="E5" t="str">
-        <v>NO VACCINATION CENTER FOUND</v>
+      <c r="D3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
-  </ignoredErrors>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
-  </sheetViews>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>CENTER_ID</v>
-      </c>
-      <c r="B1" t="str">
-        <v>HOSPITAL_NAME</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ADDRESS</v>
-      </c>
-      <c r="D1" t="str">
-        <v>PINCODE</v>
-      </c>
-      <c r="E1" t="str">
-        <v>VACCINE_TYPE</v>
-      </c>
-      <c r="F1" t="str">
-        <v>FEE</v>
-      </c>
-      <c r="G1" t="str">
-        <v>AVAILABLE_CAPACITY</v>
-      </c>
-      <c r="H1" t="str">
-        <v>DOSE_TYPE</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2">
-        <v>240184</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Perumpakkam APHC</v>
-      </c>
-      <c r="C2" t="str">
-        <v>PHCTNSCB Ezhil Nagar Perumbakkam,St.Thomas Mount,Chengalpet,Tamil Nadu</v>
-      </c>
-      <c r="D2">
-        <v>600100</v>
-      </c>
-      <c r="E2" t="str">
-        <v>COVISHIELD</v>
-      </c>
-      <c r="F2" t="str">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>5</v>
-      </c>
-      <c r="H2" t="str">
-        <v>Dose2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>239934</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Medavakkam UGPHC</v>
-      </c>
-      <c r="C3" t="str">
-        <v>UGPHCMambakkam Main Road  Medavakkam,St.Thomas Mount,Chengalpet,Tamil Nadu</v>
-      </c>
-      <c r="D3">
-        <v>600100</v>
-      </c>
-      <c r="E3" t="str">
-        <v>COVISHIELD</v>
-      </c>
-      <c r="F3" t="str">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3" t="str">
-        <v>Dose2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4">
-        <v>602865</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Gleneagles Global Health City</v>
-      </c>
-      <c r="C4" t="str">
-        <v>439 MEDAVAKKAM ROAD CHERAN NAGAR PERUMBAKKAMKANCHEEPURAM,St.Thomas Mount,Chengalpet,Tamil Nadu</v>
-      </c>
-      <c r="D4">
-        <v>600100</v>
-      </c>
-      <c r="E4" t="str">
-        <v>COVAXIN</v>
-      </c>
-      <c r="F4" t="str">
-        <v>1250</v>
-      </c>
-      <c r="G4">
-        <v>35</v>
-      </c>
-      <c r="H4" t="str">
-        <v>Dose2</v>
-      </c>
-    </row>
-  </sheetData>
-  <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H4"/>
+    <ignoredError sqref="A1:D3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>